--- a/Documentação/backlog (1).xlsx
+++ b/Documentação/backlog (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BANDTEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C269C7-A169-416A-88E6-B77251D053E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -102,12 +103,15 @@
   </si>
   <si>
     <t>HISTORICO DE ACESSO</t>
+  </si>
+  <si>
+    <t>SEGURANÇA DO SITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,17 +171,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -723,9 +744,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C3:F12">
-    <sortState ref="C4:F18">
+  <autoFilter ref="C3:F12" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F18">
       <sortCondition ref="D3:D12"/>
     </sortState>
   </autoFilter>
@@ -733,10 +771,10 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$10:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$A$6:$A$8</formula1>
     </dataValidation>
   </dataValidations>
